--- a/dev/5.6.4.xlsx
+++ b/dev/5.6.4.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerem\git-repos\Flight_Sim\dev\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeremiah Goates\git-repos\Flight_Sim\dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{550E6D8F-9ADA-4265-A30C-B8D179D0A3CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6334EFCB-E498-4653-963E-EC43C49F07C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E9B5B416-BD9C-48CF-A2B1-E8FC69180DED}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{E9B5B416-BD9C-48CF-A2B1-E8FC69180DED}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -147,37 +147,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -200,7 +170,7 @@
           <c:spPr>
             <a:ln w="25400" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1088,6 +1058,65 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Distance</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> [ft]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1133,6 +1162,7 @@
         <c:axId val="1702945232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1150,6 +1180,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Altitude</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> [ft]</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1280,7 +1370,7 @@
           <c:spPr>
             <a:ln w="25400" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2167,8 +2257,9 @@
           <c:spPr>
             <a:ln w="38100" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
+              <a:prstDash val="sysDash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -3056,6 +3147,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> [s]</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3118,6 +3269,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Velocity</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> [ft/s]</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3166,6 +3377,66 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Angle of Attack</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> [deg]</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -3219,6 +3490,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="39447312"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -3229,6 +3501,47 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="tr"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.65263801399825017"/>
+          <c:y val="5.0925925925925923E-2"/>
+          <c:w val="0.2098619860017498"/>
+          <c:h val="0.15625109361329836"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -4775,7 +5088,7 @@
   <dimension ref="C3:P140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
